--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H2">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I2">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J2">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N2">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O2">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P2">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q2">
-        <v>130.837080430895</v>
+        <v>288.4743708467828</v>
       </c>
       <c r="R2">
-        <v>523.3483217235801</v>
+        <v>1153.897483387131</v>
       </c>
       <c r="S2">
-        <v>0.03289023495956921</v>
+        <v>0.0708798049074672</v>
       </c>
       <c r="T2">
-        <v>0.01985679787807758</v>
+        <v>0.05072547491159889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H3">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I3">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J3">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P3">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q3">
-        <v>4.807748289636335</v>
+        <v>8.105864135734501</v>
       </c>
       <c r="R3">
-        <v>28.846489737818</v>
+        <v>48.63518481440701</v>
       </c>
       <c r="S3">
-        <v>0.001208586819209295</v>
+        <v>0.001991657237559079</v>
       </c>
       <c r="T3">
-        <v>0.001094488875648731</v>
+        <v>0.002138008690236903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H4">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I4">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J4">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N4">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O4">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P4">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q4">
-        <v>1.598032735460666</v>
+        <v>0.255364610046</v>
       </c>
       <c r="R4">
-        <v>9.588196412764001</v>
+        <v>1.532187660276</v>
       </c>
       <c r="S4">
-        <v>0.0004017184728464281</v>
+        <v>6.274454707085735E-05</v>
       </c>
       <c r="T4">
-        <v>0.000363793806687935</v>
+        <v>6.735515749029187E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H5">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I5">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J5">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N5">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O5">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P5">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q5">
-        <v>46.849375864316</v>
+        <v>108.951227533962</v>
       </c>
       <c r="R5">
-        <v>187.397503457264</v>
+        <v>435.804910135848</v>
       </c>
       <c r="S5">
-        <v>0.01177714280089262</v>
+        <v>0.02676994053013435</v>
       </c>
       <c r="T5">
-        <v>0.007110205946112958</v>
+        <v>0.01915803730722836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H6">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I6">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J6">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N6">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O6">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P6">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q6">
-        <v>86.49869729391</v>
+        <v>0.719031881637</v>
       </c>
       <c r="R6">
-        <v>518.9921837634599</v>
+        <v>4.314191289822</v>
       </c>
       <c r="S6">
-        <v>0.02174431337296611</v>
+        <v>0.000176670250958788</v>
       </c>
       <c r="T6">
-        <v>0.01969151799198135</v>
+        <v>0.0001896523782973569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.385801000000001</v>
+        <v>15.8244615</v>
       </c>
       <c r="H7">
-        <v>18.771602</v>
+        <v>31.648923</v>
       </c>
       <c r="I7">
-        <v>0.06848010139180623</v>
+        <v>0.100035857885554</v>
       </c>
       <c r="J7">
-        <v>0.04853166157087636</v>
+        <v>0.07244496157537267</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N7">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O7">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P7">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q7">
-        <v>1.822337736359</v>
+        <v>0.6310004023125001</v>
       </c>
       <c r="R7">
-        <v>10.934026418154</v>
+        <v>3.786002413875</v>
       </c>
       <c r="S7">
-        <v>0.0004581049663225582</v>
+        <v>0.0001550404123636972</v>
       </c>
       <c r="T7">
-        <v>0.0004148570723677974</v>
+        <v>0.000166433130520866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J8">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N8">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O8">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P8">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q8">
-        <v>508.0612102179367</v>
+        <v>664.407965681061</v>
       </c>
       <c r="R8">
-        <v>3048.36726130762</v>
+        <v>3986.447794086366</v>
       </c>
       <c r="S8">
-        <v>0.1277180178805425</v>
+        <v>0.1632488419966199</v>
       </c>
       <c r="T8">
-        <v>0.1156606605072964</v>
+        <v>0.1752447340224279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J9">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P9">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q9">
         <v>18.66925191552245</v>
@@ -1013,10 +1013,10 @@
         <v>168.023267239702</v>
       </c>
       <c r="S9">
-        <v>0.004693135004225656</v>
+        <v>0.004587142107828423</v>
       </c>
       <c r="T9">
-        <v>0.006375111790566103</v>
+        <v>0.007386323438295346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J10">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N10">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O10">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P10">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q10">
-        <v>6.205415489799555</v>
+        <v>0.5881502768151111</v>
       </c>
       <c r="R10">
-        <v>55.848739408196</v>
+        <v>5.293352491336</v>
       </c>
       <c r="S10">
-        <v>0.001559936776402291</v>
+        <v>0.0001445118911415171</v>
       </c>
       <c r="T10">
-        <v>0.002119003891178443</v>
+        <v>0.0002326964248239285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J11">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N11">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O11">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P11">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q11">
-        <v>181.9235840572827</v>
+        <v>250.934123651288</v>
       </c>
       <c r="R11">
-        <v>1091.541504343696</v>
+        <v>1505.604741907728</v>
       </c>
       <c r="S11">
-        <v>0.04573252020470842</v>
+        <v>0.06165595119185232</v>
       </c>
       <c r="T11">
-        <v>0.04141509225806493</v>
+        <v>0.06618656913805046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J12">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N12">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O12">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P12">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q12">
-        <v>335.88821062566</v>
+        <v>1.656058762988</v>
       </c>
       <c r="R12">
-        <v>3022.99389563094</v>
+        <v>14.904528866892</v>
       </c>
       <c r="S12">
-        <v>0.08443663012995938</v>
+        <v>0.000406903121727356</v>
       </c>
       <c r="T12">
-        <v>0.114697948346361</v>
+        <v>0.0006552049172405391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2659191345021217</v>
+        <v>0.2304004360519152</v>
       </c>
       <c r="J13">
-        <v>0.2826842508681249</v>
+        <v>0.25028051575005</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N13">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O13">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P13">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q13">
-        <v>7.076427513600666</v>
+        <v>1.453306553416667</v>
       </c>
       <c r="R13">
-        <v>63.687847622406</v>
+        <v>13.07975898075</v>
       </c>
       <c r="S13">
-        <v>0.001778894506283458</v>
+        <v>0.0003570857427456825</v>
       </c>
       <c r="T13">
-        <v>0.002416434074657968</v>
+        <v>0.0005749878092118162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H14">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I14">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J14">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N14">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O14">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P14">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q14">
-        <v>489.3789211192517</v>
+        <v>685.9882782643065</v>
       </c>
       <c r="R14">
-        <v>2936.27352671551</v>
+        <v>4115.929669585839</v>
       </c>
       <c r="S14">
-        <v>0.123021605548391</v>
+        <v>0.1685512483811198</v>
       </c>
       <c r="T14">
-        <v>0.1114076180520078</v>
+        <v>0.1809367731521742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H15">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I15">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J15">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P15">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q15">
-        <v>17.98275124488012</v>
+        <v>19.27563882363145</v>
       </c>
       <c r="R15">
-        <v>161.844761203921</v>
+        <v>173.480749412683</v>
       </c>
       <c r="S15">
-        <v>0.004520560316048828</v>
+        <v>0.004736134843713568</v>
       </c>
       <c r="T15">
-        <v>0.006140687907946326</v>
+        <v>0.007626235024057224</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H16">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I16">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J16">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N16">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O16">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P16">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q16">
-        <v>5.977231633550889</v>
+        <v>0.607253700427111</v>
       </c>
       <c r="R16">
-        <v>53.795084701958</v>
+        <v>5.465283303843999</v>
       </c>
       <c r="S16">
-        <v>0.00150257520412261</v>
+        <v>0.0001492057117215174</v>
       </c>
       <c r="T16">
-        <v>0.002041084454504165</v>
+        <v>0.0002402545244315341</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H17">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I17">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J17">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N17">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O17">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P17">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q17">
-        <v>175.2339393395347</v>
+        <v>259.084593100652</v>
       </c>
       <c r="R17">
-        <v>1051.403636037208</v>
+        <v>1554.507558603912</v>
       </c>
       <c r="S17">
-        <v>0.04405085636875188</v>
+        <v>0.06365856821040897</v>
       </c>
       <c r="T17">
-        <v>0.03989218771220916</v>
+        <v>0.06833634295863913</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H18">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I18">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J18">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N18">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O18">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P18">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q18">
-        <v>323.53702039593</v>
+        <v>1.709848403702</v>
       </c>
       <c r="R18">
-        <v>2911.83318356337</v>
+        <v>15.388635633318</v>
       </c>
       <c r="S18">
-        <v>0.08133174925560573</v>
+        <v>0.0004201195444849813</v>
       </c>
       <c r="T18">
-        <v>0.1104803064816858</v>
+        <v>0.0006764863100751907</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.10635633333334</v>
+        <v>37.63036233333333</v>
       </c>
       <c r="H19">
-        <v>105.319069</v>
+        <v>112.891087</v>
       </c>
       <c r="I19">
-        <v>0.2561408281726349</v>
+        <v>0.2378839607628503</v>
       </c>
       <c r="J19">
-        <v>0.2722894622242564</v>
+        <v>0.2584097556784808</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N19">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O19">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P19">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q19">
-        <v>6.816215039323667</v>
+        <v>1.500510698041666</v>
       </c>
       <c r="R19">
-        <v>61.345935353913</v>
+        <v>13.504596282375</v>
       </c>
       <c r="S19">
-        <v>0.001713481479714879</v>
+        <v>0.00036868407140144</v>
       </c>
       <c r="T19">
-        <v>0.00232757761590311</v>
+        <v>0.0005936637091035748</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H20">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I20">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J20">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N20">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O20">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P20">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q20">
-        <v>209.095400042785</v>
+        <v>398.6951187600045</v>
       </c>
       <c r="R20">
-        <v>836.38160017114</v>
+        <v>1594.780475040018</v>
       </c>
       <c r="S20">
-        <v>0.05256305638832017</v>
+        <v>0.09796167386487863</v>
       </c>
       <c r="T20">
-        <v>0.03173385619895672</v>
+        <v>0.07010674530521503</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H21">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I21">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J21">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P21">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q21">
-        <v>7.683433844715668</v>
+        <v>11.20296563872433</v>
       </c>
       <c r="R21">
-        <v>46.10060306829401</v>
+        <v>67.217793832346</v>
       </c>
       <c r="S21">
-        <v>0.001931485658474929</v>
+        <v>0.002752632812845583</v>
       </c>
       <c r="T21">
-        <v>0.00174914166949043</v>
+        <v>0.002954902462086191</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H22">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I22">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J22">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N22">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O22">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P22">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q22">
-        <v>2.553873053435333</v>
+        <v>0.3529347277213333</v>
       </c>
       <c r="R22">
-        <v>15.323238320612</v>
+        <v>2.117608366328</v>
       </c>
       <c r="S22">
-        <v>0.000642000604933752</v>
+        <v>8.671808373314683E-05</v>
       </c>
       <c r="T22">
-        <v>0.0005813918446665312</v>
+        <v>9.309032353849473E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H23">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I23">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J23">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N23">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O23">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P23">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q23">
-        <v>74.871656841028</v>
+        <v>150.579486396636</v>
       </c>
       <c r="R23">
-        <v>299.486627364112</v>
+        <v>602.3179455865439</v>
       </c>
       <c r="S23">
-        <v>0.01882147153699525</v>
+        <v>0.03699824212296814</v>
       </c>
       <c r="T23">
-        <v>0.01136307346352262</v>
+        <v>0.02647797077082763</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H24">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I24">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J24">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N24">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O24">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P24">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q24">
-        <v>138.23665014753</v>
+        <v>0.993760730286</v>
       </c>
       <c r="R24">
-        <v>829.4199008851799</v>
+        <v>5.962564381716</v>
       </c>
       <c r="S24">
-        <v>0.03475036196468365</v>
+        <v>0.0002441727023465293</v>
       </c>
       <c r="T24">
-        <v>0.03146971652396168</v>
+        <v>0.0002621150616133679</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.999783</v>
+        <v>21.870697</v>
       </c>
       <c r="H25">
-        <v>29.999566</v>
+        <v>43.741394</v>
       </c>
       <c r="I25">
-        <v>0.1094404900226514</v>
+        <v>0.1382577180872797</v>
       </c>
       <c r="J25">
-        <v>0.07756017756956327</v>
+        <v>0.1001248480898777</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N25">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O25">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P25">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q25">
-        <v>2.912342867497</v>
+        <v>0.872094042875</v>
       </c>
       <c r="R25">
-        <v>17.474057204982</v>
+        <v>5.23256425725</v>
       </c>
       <c r="S25">
-        <v>0.0007321138692436245</v>
+        <v>0.0002142785005076776</v>
       </c>
       <c r="T25">
-        <v>0.0006629978689652867</v>
+        <v>0.0002300241665969683</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H26">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I26">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J26">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N26">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O26">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P26">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q26">
-        <v>132.901049164385</v>
+        <v>249.109143306618</v>
       </c>
       <c r="R26">
-        <v>797.4062949863101</v>
+        <v>1494.654859839708</v>
       </c>
       <c r="S26">
-        <v>0.03340908188255252</v>
+        <v>0.06120754307015171</v>
       </c>
       <c r="T26">
-        <v>0.03025506143614418</v>
+        <v>0.06570521097918189</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H27">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I27">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J27">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P27">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q27">
-        <v>4.883591025622334</v>
+        <v>6.999737497252891</v>
       </c>
       <c r="R27">
-        <v>43.95231923060101</v>
+        <v>62.99763747527601</v>
       </c>
       <c r="S27">
-        <v>0.001227652403662424</v>
+        <v>0.001719875588089183</v>
       </c>
       <c r="T27">
-        <v>0.001667631829525104</v>
+        <v>0.002769383870967332</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H28">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I28">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J28">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N28">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O28">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P28">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q28">
-        <v>1.623241870288666</v>
+        <v>0.2205175421742223</v>
       </c>
       <c r="R28">
-        <v>14.609176832598</v>
+        <v>1.984657879568</v>
       </c>
       <c r="S28">
-        <v>0.0004080556240950629</v>
+        <v>5.418242293796257E-05</v>
       </c>
       <c r="T28">
-        <v>0.0005542990384962224</v>
+        <v>8.724580383226132E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H29">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I29">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J29">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N29">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O29">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P29">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q29">
-        <v>47.588429706308</v>
+        <v>94.083737399344</v>
       </c>
       <c r="R29">
-        <v>285.530578237848</v>
+        <v>564.502424396064</v>
       </c>
       <c r="S29">
-        <v>0.01196292846983934</v>
+        <v>0.02311691306321555</v>
       </c>
       <c r="T29">
-        <v>0.01083355529144923</v>
+        <v>0.02481559582068385</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H30">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I30">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J30">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N30">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O30">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P30">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q30">
-        <v>87.86322336033</v>
+        <v>0.620912753944</v>
       </c>
       <c r="R30">
-        <v>790.7690102429699</v>
+        <v>5.588214785496</v>
       </c>
       <c r="S30">
-        <v>0.02208733220818626</v>
+        <v>0.0001525618193911722</v>
       </c>
       <c r="T30">
-        <v>0.03000323064556535</v>
+        <v>0.0002456586074442466</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.533863</v>
+        <v>13.66505466666667</v>
       </c>
       <c r="H31">
-        <v>28.601589</v>
+        <v>40.995164</v>
       </c>
       <c r="I31">
-        <v>0.0695603822087843</v>
+        <v>0.08638495955347313</v>
       </c>
       <c r="J31">
-        <v>0.07394588047079305</v>
+        <v>0.09383867756751472</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N31">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O31">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P31">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q31">
-        <v>1.851085306217</v>
+        <v>0.5448940548333334</v>
       </c>
       <c r="R31">
-        <v>16.659767755953</v>
+        <v>4.9040464935</v>
       </c>
       <c r="S31">
-        <v>0.0004653316204486845</v>
+        <v>0.0001338835896875521</v>
       </c>
       <c r="T31">
-        <v>0.0006321022296129545</v>
+        <v>0.0002155824854051529</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H32">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I32">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J32">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N32">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O32">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P32">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q32">
-        <v>440.3117174300116</v>
+        <v>597.0347942954639</v>
       </c>
       <c r="R32">
-        <v>2641.870304580069</v>
+        <v>3582.208765772783</v>
       </c>
       <c r="S32">
-        <v>0.1106869382443423</v>
+        <v>0.1466948679649205</v>
       </c>
       <c r="T32">
-        <v>0.1002374183323537</v>
+        <v>0.1574743367521097</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H33">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I33">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J33">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P33">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q33">
-        <v>16.17972442834411</v>
+        <v>16.77612785031645</v>
       </c>
       <c r="R33">
-        <v>145.617519855097</v>
+        <v>150.985150652848</v>
       </c>
       <c r="S33">
-        <v>0.004067309789218285</v>
+        <v>0.004121990683757195</v>
       </c>
       <c r="T33">
-        <v>0.00552499652573039</v>
+        <v>0.006637325743170466</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H34">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I34">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J34">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N34">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O34">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P34">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q34">
-        <v>5.377929069822888</v>
+        <v>0.5285098880071111</v>
       </c>
       <c r="R34">
-        <v>48.40136162840599</v>
+        <v>4.756588992064</v>
       </c>
       <c r="S34">
-        <v>0.001351920649099142</v>
+        <v>0.0001298579060720366</v>
       </c>
       <c r="T34">
-        <v>0.001836436680858653</v>
+        <v>0.0002091002355542712</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H35">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I35">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J35">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N35">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O35">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P35">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q35">
-        <v>157.6642422729426</v>
+        <v>225.488571230912</v>
       </c>
       <c r="R35">
-        <v>945.9854536376558</v>
+        <v>1352.931427385472</v>
       </c>
       <c r="S35">
-        <v>0.0396341309054083</v>
+        <v>0.05540383324451164</v>
       </c>
       <c r="T35">
-        <v>0.03589242798490495</v>
+        <v>0.05947503150410356</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H36">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I36">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J36">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N36">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O36">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P36">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q36">
-        <v>291.0978281960099</v>
+        <v>1.488128911712</v>
       </c>
       <c r="R36">
-        <v>2619.880453764089</v>
+        <v>13.393160205408</v>
       </c>
       <c r="S36">
-        <v>0.07317708354585288</v>
+        <v>0.0003656417955941419</v>
       </c>
       <c r="T36">
-        <v>0.0994030829482562</v>
+        <v>0.0005887649654908891</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>31.58644433333333</v>
+        <v>32.75075733333333</v>
       </c>
       <c r="H37">
-        <v>94.75933299999998</v>
+        <v>98.25227199999999</v>
       </c>
       <c r="I37">
-        <v>0.2304590637020015</v>
+        <v>0.2070370676589277</v>
       </c>
       <c r="J37">
-        <v>0.244988567296386</v>
+        <v>0.2249012413387041</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N37">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O37">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P37">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q37">
-        <v>6.132792445315665</v>
+        <v>1.305936448666667</v>
       </c>
       <c r="R37">
-        <v>55.19513200784098</v>
+        <v>11.753428038</v>
       </c>
       <c r="S37">
-        <v>0.001541680568080553</v>
+        <v>0.0003208760640722833</v>
       </c>
       <c r="T37">
-        <v>0.00209420482428219</v>
+        <v>0.0005166821382752147</v>
       </c>
     </row>
   </sheetData>
